--- a/项目/project1/project1.xlsx
+++ b/项目/project1/project1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="164">
   <si>
     <t>car</t>
   </si>
@@ -292,106 +292,220 @@
     <t>//img4.bitautoimg.com/autoalbum/files/20190624/498/0943064989_6.jpg</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>56.9</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>28.9</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>42.8</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>30.9</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>28.2</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>82.1</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>63.9</t>
+  </si>
+  <si>
+    <t>39.9</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>39.2</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>50.6</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>16.8</t>
   </si>
 </sst>
 </file>
@@ -783,7 +897,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -797,10 +911,10 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -814,10 +928,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -831,10 +945,10 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -848,10 +962,10 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -865,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -882,10 +996,10 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -899,10 +1013,10 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -916,10 +1030,10 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -933,10 +1047,10 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -950,10 +1064,10 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -967,10 +1081,10 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -984,10 +1098,10 @@
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1001,10 +1115,10 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1018,10 +1132,10 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1035,10 +1149,10 @@
         <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1052,10 +1166,10 @@
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1069,10 +1183,10 @@
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1086,10 +1200,10 @@
         <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1106,7 +1220,7 @@
         <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1120,10 +1234,10 @@
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1137,10 +1251,10 @@
         <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1154,10 +1268,10 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1171,10 +1285,10 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1188,10 +1302,10 @@
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1205,10 +1319,10 @@
         <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1222,10 +1336,10 @@
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1239,10 +1353,10 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1256,10 +1370,10 @@
         <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1273,10 +1387,10 @@
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1290,10 +1404,10 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1307,10 +1421,10 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1324,10 +1438,10 @@
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1341,7 +1455,7 @@
         <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1355,10 +1469,10 @@
         <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1372,10 +1486,10 @@
         <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1389,10 +1503,10 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1406,10 +1520,10 @@
         <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1423,10 +1537,10 @@
         <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1440,10 +1554,10 @@
         <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1457,7 +1571,7 @@
         <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1471,7 +1585,7 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5">
